--- a/HW4/mutants.xlsx
+++ b/HW4/mutants.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Q1Mutants" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Q3Mutants" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t xml:space="preserve">Live mutant # </t>
   </si>
@@ -110,6 +111,93 @@
   </si>
   <si>
     <t xml:space="preserve">setDrink(…) { … soda.setCount( newCount-- ); …}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDL_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‘change = 0’ initialization removed from constructor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a silent mutation because the Java compiler automatically initializes integers to 0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROR_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In purchase method,’ if (soda.getCount() &gt; 0 &amp;&amp; deposit &gt;= soda.getPrice())’ to ‘if (soda.getCount() &gt; 0 &amp;&amp; deposit &gt; soda.getPrice())’.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This mutation was not killed because the FSM implementation does not explicitly handle the case where the deposit is exactly equal to the price.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COR_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In purchase method, ‘soda.getCount() &gt; 0 &amp;&amp; deposit &gt;= soda.getPrice()’ to ‘soda.getCount() &gt; 0 || deposit &gt;= soda.getPrice()’.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This one was not killed because the FSM test implementation does not attempt to purchase an item before there is sufficient deposit, this is a sneak path!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODL_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In purchase method, ‘juice.getCount() &gt; 0 &amp;&amp; deposit &gt;= juice.getPrice()’ to ‘juice.getCount() &gt; 0’.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As above, this one was not killed because the FSM does not attempt to make a purchase without deposit, again a missing sneak path.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDL_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In purchase method, ‘soda.getCount() &gt; 0 &amp;&amp; deposit &gt;= soda.getPrice()’ to ‘true’.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This mutation was not killed because the FSM implementation always adds a drink before attempting to purchase it, another missing sneak path.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROR_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In purchase method,’ if (juice.getCount() &gt; 0 &amp;&amp; deposit &gt;= juice.getPrice())’ to ‘if (juice.getCount() &gt; 0 &amp;&amp; deposit &gt; juice.getPrice())’.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This mutation was not killed because the FSM implementation does not explicitly handle the case where the deposit is exactly equal to the price, same as ROR_36 but with juice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODL_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In purchase method, ‘soda.getCount() &gt; 0 &amp;&amp; deposit &gt;= soda.getPrice()’ to ‘deposit &gt; 0 &amp;&amp; deposit &gt;= soda.getPrice()’.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This mutation was not killed because the FSM implementation always adds a drink before attempting to purchase it, the same missing sneak path as SDL_43.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In setDrink method, ‘soda.setCount(newCount)’ to ‘soda.setCount(newCount++);’.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a silent mutation because the post-decrementing of a local variable does not affect the class state.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COR_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In purchase method, ‘juice.getCount() &gt; 0 &amp;&amp; deposit &gt;=juice.getPrice()’ to ‘juice.getCount() &gt; 0 || deposit &gt;= juice.getPrice()’.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This one was not killed because the FSM test implementation does not attempt to purchase an item before there is sufficient deposit, the same missing sneak path as COR_5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AOIS_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In setDrink method, ‘juice.setCount(newCount)’ to ‘juice.setCount(newCount++);’.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the same silent mutation that allowed mutant AOIS_11 to live.</t>
   </si>
 </sst>
 </file>
@@ -119,11 +207,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -152,11 +241,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -215,7 +299,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -240,10 +324,6 @@
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -261,20 +341,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:D12"/>
+  <dimension ref="B1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="58.219387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.2397959183674"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="57.6428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="46.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+    </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -345,7 +430,7 @@
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -356,7 +441,7 @@
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -367,7 +452,7 @@
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -378,7 +463,7 @@
       <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -389,7 +474,7 @@
       <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -405,4 +490,160 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:D12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="57.6428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="57.2448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>